--- a/wwwroot/data/kafe.xlsx
+++ b/wwwroot/data/kafe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5A0E72-D4DE-4DFA-94AB-1559AD77AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BAD49A9-747B-4159-848C-29D5FA443AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>اسپرسو ربوستا 100</t>
   </si>
   <si>
-    <t>تک :‌   1T</t>
-  </si>
-  <si>
-    <t>دبل :‌   1T</t>
+    <t>تک :‌   43T</t>
+  </si>
+  <si>
+    <t>دبل :‌   59T</t>
   </si>
   <si>
     <t>coffe</t>
@@ -48,57 +48,102 @@
     <t>اسپرسو ترکیبی 30-70</t>
   </si>
   <si>
+    <t>تک :‌   48T</t>
+  </si>
+  <si>
+    <t>دبل :‌   64T</t>
+  </si>
+  <si>
     <t>اسپرسو عربیکا 100</t>
   </si>
   <si>
+    <t>تک :‌   58T</t>
+  </si>
+  <si>
+    <t>دبل :‌   78T</t>
+  </si>
+  <si>
     <t>اسپرسو رومانو</t>
   </si>
   <si>
-    <t>1T</t>
+    <t>75T</t>
   </si>
   <si>
     <t>آیس کافی</t>
   </si>
   <si>
+    <t>65T</t>
+  </si>
+  <si>
     <t>امریکانو</t>
   </si>
   <si>
-    <t>گرم :   1T</t>
-  </si>
-  <si>
-    <t>سرد :   1T</t>
+    <t>گرم :   65T</t>
+  </si>
+  <si>
+    <t>سرد :   65T</t>
   </si>
   <si>
     <t>کورتادو</t>
   </si>
   <si>
+    <t>گرم :   74T</t>
+  </si>
+  <si>
     <t>کاپوچینو</t>
   </si>
   <si>
+    <t>گرم :   79T</t>
+  </si>
+  <si>
     <t>لاته</t>
   </si>
   <si>
+    <t>گرم :   89T</t>
+  </si>
+  <si>
+    <t>سرد :   89T</t>
+  </si>
+  <si>
     <t>ماکیاتو</t>
   </si>
   <si>
+    <t>گرم :   108T</t>
+  </si>
+  <si>
+    <t>سرد :   108T</t>
+  </si>
+  <si>
     <t>کارامل، فندق،‌ وانیل،‌ نارگیل، شکلات، نوتلا</t>
   </si>
   <si>
     <t>هانی ماکیاتو</t>
   </si>
   <si>
+    <t>گرم :   115T</t>
+  </si>
+  <si>
     <t>موکا</t>
   </si>
   <si>
     <t>آفوگاتو</t>
   </si>
   <si>
+    <t>105T</t>
+  </si>
+  <si>
     <t>نسکافه</t>
   </si>
   <si>
+    <t>85T</t>
+  </si>
+  <si>
     <t>فرانسه</t>
   </si>
   <si>
+    <t>69T</t>
+  </si>
+  <si>
     <t>یونانی</t>
   </si>
   <si>
@@ -108,7 +153,7 @@
     <t>هات چاکلت</t>
   </si>
   <si>
-    <t>2T</t>
+    <t>98T</t>
   </si>
   <si>
     <t>hot drink</t>
@@ -123,6 +168,9 @@
     <t>نوتلا چاکلت</t>
   </si>
   <si>
+    <t>115T</t>
+  </si>
+  <si>
     <t>ماسالا</t>
   </si>
   <si>
@@ -132,15 +180,18 @@
     <t>شیر کاکائو</t>
   </si>
   <si>
+    <t>79T</t>
+  </si>
+  <si>
     <t>شیر عسل</t>
   </si>
   <si>
+    <t>89T</t>
+  </si>
+  <si>
     <t>سلامت</t>
   </si>
   <si>
-    <t>3T</t>
-  </si>
-  <si>
     <t>exir</t>
   </si>
   <si>
@@ -162,57 +213,87 @@
     <t>چای کلاسیک</t>
   </si>
   <si>
+    <t>45T</t>
+  </si>
+  <si>
     <t>چای سبز</t>
   </si>
   <si>
+    <t>55T</t>
+  </si>
+  <si>
     <t>چای ترش</t>
   </si>
   <si>
+    <t>58T</t>
+  </si>
+  <si>
     <t>چای زعفران</t>
   </si>
   <si>
     <t>سیب کلاسیک</t>
   </si>
   <si>
+    <t>110T</t>
+  </si>
+  <si>
+    <t>snack</t>
+  </si>
+  <si>
+    <t>سیب سوخاری</t>
+  </si>
+  <si>
+    <t>189T</t>
+  </si>
+  <si>
+    <t>فیله استریپس</t>
+  </si>
+  <si>
+    <t>269T</t>
+  </si>
+  <si>
+    <t>کیک روز</t>
+  </si>
+  <si>
+    <t>68T</t>
+  </si>
+  <si>
+    <t>کوکی</t>
+  </si>
+  <si>
     <t>4T</t>
   </si>
   <si>
-    <t>snack</t>
-  </si>
-  <si>
-    <t>سیب سوخاری</t>
-  </si>
-  <si>
-    <t>فیله استریپس</t>
-  </si>
-  <si>
-    <t>کیک روز</t>
-  </si>
-  <si>
-    <t>کوکی</t>
-  </si>
-  <si>
     <t>میلک شیک</t>
   </si>
   <si>
-    <t>5T</t>
-  </si>
-  <si>
     <t>shakes and ice creams</t>
   </si>
   <si>
     <t>موز شکلات</t>
   </si>
   <si>
+    <t>165T</t>
+  </si>
+  <si>
     <t>نوتلا</t>
   </si>
   <si>
+    <t>170T</t>
+  </si>
+  <si>
     <t>وانیل</t>
   </si>
   <si>
+    <t>138T</t>
+  </si>
+  <si>
     <t>توت فرنگی</t>
   </si>
   <si>
+    <t>148T</t>
+  </si>
+  <si>
     <t>بادام زمینی</t>
   </si>
   <si>
@@ -222,31 +303,37 @@
     <t>معجون پروتئین</t>
   </si>
   <si>
+    <t>275T</t>
+  </si>
+  <si>
     <t>پروتئین وی ساشه، گردو، کره بادام زمینی، خرما، عسل، موز</t>
   </si>
   <si>
     <t>لیموناد</t>
   </si>
   <si>
-    <t>6T</t>
-  </si>
-  <si>
     <t>mocktale</t>
   </si>
   <si>
     <t>موهیتو</t>
   </si>
   <si>
+    <t>95T</t>
+  </si>
+  <si>
     <t>رِد من</t>
   </si>
   <si>
     <t>اسپایسی دی</t>
   </si>
   <si>
+    <t>118T</t>
+  </si>
+  <si>
     <t>خیار سکنجبین</t>
   </si>
   <si>
-    <t>7T</t>
+    <t>punch</t>
   </si>
   <si>
     <t>رزماری</t>
@@ -255,19 +342,22 @@
     <t>نوستالژی</t>
   </si>
   <si>
-    <t>punch</t>
+    <t>120T</t>
   </si>
   <si>
     <t>سیب آبی</t>
   </si>
   <si>
-    <t>8T</t>
+    <t>145T</t>
+  </si>
+  <si>
+    <t>smothie</t>
   </si>
   <si>
     <t>چشمک</t>
   </si>
   <si>
-    <t>smothie</t>
+    <t>195T</t>
   </si>
 </sst>
 </file>
@@ -639,18 +729,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -672,10 +763,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -683,13 +774,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -697,10 +788,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -708,10 +799,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -719,13 +810,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -733,13 +824,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -747,13 +835,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -761,13 +846,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -775,30 +860,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -806,13 +888,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -820,10 +902,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -831,10 +913,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -842,10 +924,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -853,10 +935,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -864,10 +946,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -875,443 +957,423 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1">
-      <c r="D55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1">
-      <c r="D56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4"/>
-    <row r="64" spans="1:4"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wwwroot/data/kafe.xlsx
+++ b/wwwroot/data/kafe.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BAD49A9-747B-4159-848C-29D5FA443AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C9BD3E-47B5-49E9-97B9-7D7FDC365C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>اسپرسو ربوستا 100</t>
   </si>
   <si>
-    <t>تک :‌   43T</t>
-  </si>
-  <si>
-    <t>دبل :‌   59T</t>
+    <t>قیمت تک :‌   43T</t>
+  </si>
+  <si>
+    <t>قیمت دبل :‌   59T</t>
   </si>
   <si>
     <t>coffe</t>
@@ -48,70 +48,70 @@
     <t>اسپرسو ترکیبی 30-70</t>
   </si>
   <si>
-    <t>تک :‌   48T</t>
-  </si>
-  <si>
-    <t>دبل :‌   64T</t>
+    <t>قیمت تک :‌   48T</t>
+  </si>
+  <si>
+    <t>قیمت دبل :‌   64T</t>
   </si>
   <si>
     <t>اسپرسو عربیکا 100</t>
   </si>
   <si>
-    <t>تک :‌   58T</t>
-  </si>
-  <si>
-    <t>دبل :‌   78T</t>
+    <t>قیمت تک :‌   58T</t>
+  </si>
+  <si>
+    <t>قیمت دبل :‌   78T</t>
   </si>
   <si>
     <t>اسپرسو رومانو</t>
   </si>
   <si>
-    <t>75T</t>
+    <t>قیمت :   75T</t>
   </si>
   <si>
     <t>آیس کافی</t>
   </si>
   <si>
-    <t>65T</t>
+    <t>قیمت :   65T</t>
   </si>
   <si>
     <t>امریکانو</t>
   </si>
   <si>
-    <t>گرم :   65T</t>
-  </si>
-  <si>
-    <t>سرد :   65T</t>
+    <t>قیمت گرم :   65T</t>
+  </si>
+  <si>
+    <t>قیمت سرد :   65T</t>
   </si>
   <si>
     <t>کورتادو</t>
   </si>
   <si>
-    <t>گرم :   74T</t>
+    <t>قیمت گرم :   74T</t>
   </si>
   <si>
     <t>کاپوچینو</t>
   </si>
   <si>
-    <t>گرم :   79T</t>
+    <t>قیمت گرم :   79T</t>
   </si>
   <si>
     <t>لاته</t>
   </si>
   <si>
-    <t>گرم :   89T</t>
-  </si>
-  <si>
-    <t>سرد :   89T</t>
+    <t>قیمت گرم :   89T</t>
+  </si>
+  <si>
+    <t>قیمت سرد :   89T</t>
   </si>
   <si>
     <t>ماکیاتو</t>
   </si>
   <si>
-    <t>گرم :   108T</t>
-  </si>
-  <si>
-    <t>سرد :   108T</t>
+    <t>قیمت گرم :   108T</t>
+  </si>
+  <si>
+    <t>قیمت سرد :   108T</t>
   </si>
   <si>
     <t>کارامل، فندق،‌ وانیل،‌ نارگیل، شکلات، نوتلا</t>
@@ -120,7 +120,7 @@
     <t>هانی ماکیاتو</t>
   </si>
   <si>
-    <t>گرم :   115T</t>
+    <t>قیمت گرم :   115T</t>
   </si>
   <si>
     <t>موکا</t>
@@ -129,19 +129,19 @@
     <t>آفوگاتو</t>
   </si>
   <si>
-    <t>105T</t>
+    <t>قیمت :   105T</t>
   </si>
   <si>
     <t>نسکافه</t>
   </si>
   <si>
-    <t>85T</t>
+    <t>قیمت :   85T</t>
   </si>
   <si>
     <t>فرانسه</t>
   </si>
   <si>
-    <t>69T</t>
+    <t>قیمت :   69T</t>
   </si>
   <si>
     <t>یونانی</t>
@@ -153,7 +153,7 @@
     <t>هات چاکلت</t>
   </si>
   <si>
-    <t>98T</t>
+    <t>قیمت :   98T</t>
   </si>
   <si>
     <t>hot drink</t>
@@ -168,7 +168,7 @@
     <t>نوتلا چاکلت</t>
   </si>
   <si>
-    <t>115T</t>
+    <t>قیمت :   115T</t>
   </si>
   <si>
     <t>ماسالا</t>
@@ -180,13 +180,13 @@
     <t>شیر کاکائو</t>
   </si>
   <si>
-    <t>79T</t>
+    <t>قیمت :   79T</t>
   </si>
   <si>
     <t>شیر عسل</t>
   </si>
   <si>
-    <t>89T</t>
+    <t>قیمت :   89T</t>
   </si>
   <si>
     <t>سلامت</t>
@@ -213,19 +213,19 @@
     <t>چای کلاسیک</t>
   </si>
   <si>
-    <t>45T</t>
+    <t>قیمت :   45T</t>
   </si>
   <si>
     <t>چای سبز</t>
   </si>
   <si>
-    <t>55T</t>
+    <t>قیمت :   55T</t>
   </si>
   <si>
     <t>چای ترش</t>
   </si>
   <si>
-    <t>58T</t>
+    <t>قیمت :   58T</t>
   </si>
   <si>
     <t>چای زعفران</t>
@@ -234,7 +234,7 @@
     <t>سیب کلاسیک</t>
   </si>
   <si>
-    <t>110T</t>
+    <t>قیمت :   110T</t>
   </si>
   <si>
     <t>snack</t>
@@ -243,25 +243,25 @@
     <t>سیب سوخاری</t>
   </si>
   <si>
-    <t>189T</t>
+    <t>قیمت :   189T</t>
   </si>
   <si>
     <t>فیله استریپس</t>
   </si>
   <si>
-    <t>269T</t>
+    <t>قیمت :   269T</t>
   </si>
   <si>
     <t>کیک روز</t>
   </si>
   <si>
-    <t>68T</t>
+    <t>قیمت :   68T</t>
   </si>
   <si>
     <t>کوکی</t>
   </si>
   <si>
-    <t>4T</t>
+    <t>قیمت :   --</t>
   </si>
   <si>
     <t>میلک شیک</t>
@@ -273,25 +273,25 @@
     <t>موز شکلات</t>
   </si>
   <si>
-    <t>165T</t>
+    <t>قیمت :   165T</t>
   </si>
   <si>
     <t>نوتلا</t>
   </si>
   <si>
-    <t>170T</t>
+    <t>قیمت :   170T</t>
   </si>
   <si>
     <t>وانیل</t>
   </si>
   <si>
-    <t>138T</t>
+    <t>قیمت :   138T</t>
   </si>
   <si>
     <t>توت فرنگی</t>
   </si>
   <si>
-    <t>148T</t>
+    <t>قیمت :   148T</t>
   </si>
   <si>
     <t>بادام زمینی</t>
@@ -303,7 +303,7 @@
     <t>معجون پروتئین</t>
   </si>
   <si>
-    <t>275T</t>
+    <t>قیمت :   275T</t>
   </si>
   <si>
     <t>پروتئین وی ساشه، گردو، کره بادام زمینی، خرما، عسل، موز</t>
@@ -318,7 +318,7 @@
     <t>موهیتو</t>
   </si>
   <si>
-    <t>95T</t>
+    <t>قیمت :   95T</t>
   </si>
   <si>
     <t>رِد من</t>
@@ -327,7 +327,7 @@
     <t>اسپایسی دی</t>
   </si>
   <si>
-    <t>118T</t>
+    <t>قیمت :   118T</t>
   </si>
   <si>
     <t>خیار سکنجبین</t>
@@ -342,13 +342,13 @@
     <t>نوستالژی</t>
   </si>
   <si>
-    <t>120T</t>
+    <t>قیمت :   120T</t>
   </si>
   <si>
     <t>سیب آبی</t>
   </si>
   <si>
-    <t>145T</t>
+    <t>قیمت :   145T</t>
   </si>
   <si>
     <t>smothie</t>
@@ -357,7 +357,7 @@
     <t>چشمک</t>
   </si>
   <si>
-    <t>195T</t>
+    <t>قیمت :   195T</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>

--- a/wwwroot/data/kafe.xlsx
+++ b/wwwroot/data/kafe.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BAD49A9-747B-4159-848C-29D5FA443AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E18E55-B145-44F0-B29D-A1E8CA485B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
   <si>
     <t>اسپرسو ربوستا 100</t>
   </si>
   <si>
-    <t>تک :‌   43T</t>
-  </si>
-  <si>
-    <t>دبل :‌   59T</t>
+    <t>تک: ۴۸٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>دبل: ۶۴٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>coffe</t>
@@ -48,70 +48,70 @@
     <t>اسپرسو ترکیبی 30-70</t>
   </si>
   <si>
-    <t>تک :‌   48T</t>
-  </si>
-  <si>
-    <t>دبل :‌   64T</t>
+    <t>تک: ۶۴٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>دبل :‌   ۶۹٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>اسپرسو عربیکا 100</t>
   </si>
   <si>
-    <t>تک :‌   58T</t>
-  </si>
-  <si>
-    <t>دبل :‌   78T</t>
+    <t>تک: ۵۳٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>دبل :‌ ۷۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>اسپرسو رومانو</t>
   </si>
   <si>
-    <t>75T</t>
+    <t>۷۹٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>آیس کافی</t>
   </si>
   <si>
-    <t>65T</t>
+    <t>۶۹٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>امریکانو</t>
   </si>
   <si>
-    <t>گرم :   65T</t>
-  </si>
-  <si>
-    <t>سرد :   65T</t>
+    <t>گرم :  ۶۹٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>سرد :   ۶۹٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>کورتادو</t>
   </si>
   <si>
-    <t>گرم :   74T</t>
+    <t>گرم :   ۷۴٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>کاپوچینو</t>
   </si>
   <si>
-    <t>گرم :   79T</t>
+    <t>گرم :   ۸۳٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>لاته</t>
   </si>
   <si>
-    <t>گرم :   89T</t>
-  </si>
-  <si>
-    <t>سرد :   89T</t>
+    <t>گرم :   ۹۳٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>سرد :   ۸۹٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>ماکیاتو</t>
   </si>
   <si>
-    <t>گرم :   108T</t>
-  </si>
-  <si>
-    <t>سرد :   108T</t>
+    <t>گرم :   ۱۱۳٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>سرد :   ۱۰۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>کارامل، فندق،‌ وانیل،‌ نارگیل، شکلات، نوتلا</t>
@@ -120,7 +120,7 @@
     <t>هانی ماکیاتو</t>
   </si>
   <si>
-    <t>گرم :   115T</t>
+    <t>گرم :   ۱۱۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>موکا</t>
@@ -129,19 +129,13 @@
     <t>آفوگاتو</t>
   </si>
   <si>
-    <t>105T</t>
+    <t>۱۰۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>نسکافه</t>
   </si>
   <si>
-    <t>85T</t>
-  </si>
-  <si>
-    <t>فرانسه</t>
-  </si>
-  <si>
-    <t>69T</t>
+    <t>۸۹٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>یونانی</t>
@@ -150,10 +144,13 @@
     <t>ترک</t>
   </si>
   <si>
+    <t>۶۵٬۰۰۰ تومان</t>
+  </si>
+  <si>
     <t>هات چاکلت</t>
   </si>
   <si>
-    <t>98T</t>
+    <t>۹۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>hot drink</t>
@@ -168,7 +165,7 @@
     <t>نوتلا چاکلت</t>
   </si>
   <si>
-    <t>115T</t>
+    <t>۱۱۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>ماسالا</t>
@@ -180,18 +177,15 @@
     <t>شیر کاکائو</t>
   </si>
   <si>
-    <t>79T</t>
-  </si>
-  <si>
     <t>شیر عسل</t>
   </si>
   <si>
-    <t>89T</t>
-  </si>
-  <si>
     <t>سلامت</t>
   </si>
   <si>
+    <t>۷۵٬۰۰۰ تومان</t>
+  </si>
+  <si>
     <t>exir</t>
   </si>
   <si>
@@ -201,6 +195,9 @@
     <t>ماه عسل</t>
   </si>
   <si>
+    <t>۸۵٬۰۰۰ تومان</t>
+  </si>
+  <si>
     <t>چای سیاه، جنسینگ، زنجبیل، دارچین، میخک، سیاه دانه، هل، بادیان، اسطوخودوس</t>
   </si>
   <si>
@@ -213,19 +210,19 @@
     <t>چای کلاسیک</t>
   </si>
   <si>
-    <t>45T</t>
+    <t>۴۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>چای سبز</t>
   </si>
   <si>
-    <t>55T</t>
+    <t>۵۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>چای ترش</t>
   </si>
   <si>
-    <t>58T</t>
+    <t>۵۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>چای زعفران</t>
@@ -234,7 +231,7 @@
     <t>سیب کلاسیک</t>
   </si>
   <si>
-    <t>110T</t>
+    <t>۱۲۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>snack</t>
@@ -243,28 +240,25 @@
     <t>سیب سوخاری</t>
   </si>
   <si>
-    <t>189T</t>
+    <t>۱۹۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>فیله استریپس</t>
   </si>
   <si>
-    <t>269T</t>
+    <t>۲۶۹٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>کیک روز</t>
   </si>
   <si>
-    <t>68T</t>
-  </si>
-  <si>
     <t>کوکی</t>
   </si>
   <si>
-    <t>4T</t>
-  </si>
-  <si>
-    <t>میلک شیک</t>
+    <t>شکلات</t>
+  </si>
+  <si>
+    <t>۱۵۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>shakes and ice creams</t>
@@ -273,37 +267,52 @@
     <t>موز شکلات</t>
   </si>
   <si>
-    <t>165T</t>
+    <t>۱۷۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>نوتلا</t>
   </si>
   <si>
-    <t>170T</t>
+    <t>۱۸۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>وانیل</t>
   </si>
   <si>
-    <t>138T</t>
+    <t>۱۴۸٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>توت فرنگی</t>
   </si>
   <si>
-    <t>148T</t>
+    <t>۱۶۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>بادام زمینی</t>
   </si>
   <si>
+    <t>۱۶۸٬۰۰۰ تومان</t>
+  </si>
+  <si>
     <t>شیرموز نارگیل</t>
   </si>
   <si>
+    <t>۹۶٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>میلک شیک (با طعم دلخواه)</t>
+  </si>
+  <si>
+    <t>۱۹۸٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>بشقاب بستنی</t>
+  </si>
+  <si>
     <t>معجون پروتئین</t>
   </si>
   <si>
-    <t>275T</t>
+    <t>۲۷۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>پروتئین وی ساشه، گردو، کره بادام زمینی، خرما، عسل، موز</t>
@@ -318,7 +327,10 @@
     <t>موهیتو</t>
   </si>
   <si>
-    <t>95T</t>
+    <t>۹۵٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>رد موهیتو</t>
   </si>
   <si>
     <t>رِد من</t>
@@ -327,12 +339,12 @@
     <t>اسپایسی دی</t>
   </si>
   <si>
-    <t>118T</t>
-  </si>
-  <si>
     <t>خیار سکنجبین</t>
   </si>
   <si>
+    <t>۱۱۰٬۰۰۰ تومان</t>
+  </si>
+  <si>
     <t>punch</t>
   </si>
   <si>
@@ -342,13 +354,13 @@
     <t>نوستالژی</t>
   </si>
   <si>
-    <t>120T</t>
+    <t>۱۲۰٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>سیب آبی</t>
   </si>
   <si>
-    <t>145T</t>
+    <t>۱۳۵٬۰۰۰ تومان</t>
   </si>
   <si>
     <t>smothie</t>
@@ -357,7 +369,10 @@
     <t>چشمک</t>
   </si>
   <si>
-    <t>195T</t>
+    <t>توت فرنگی انبه</t>
+  </si>
+  <si>
+    <t>۲۲۹٬۰۰۰ تومان</t>
   </si>
 </sst>
 </file>
@@ -729,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A1048552" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -927,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -935,10 +950,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -949,21 +964,21 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -971,10 +986,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -982,21 +997,21 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1004,10 +1019,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1015,10 +1030,10 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
         <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1026,96 +1041,96 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
-        <v>41</v>
+      <c r="E25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1123,65 +1138,62 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1189,10 +1201,10 @@
         <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1203,7 +1215,7 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1214,7 +1226,7 @@
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1225,7 +1237,7 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1236,7 +1248,7 @@
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1244,35 +1256,32 @@
         <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1280,54 +1289,57 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1335,10 +1347,10 @@
         <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1349,29 +1361,62 @@
         <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="D54" t="s">
-        <v>106</v>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
